--- a/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -557,27 +561,37 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>88,8%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 6,06</t>
+          <t>-13,32; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 6,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,0</t>
+          <t>-14,18; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 0,0</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>-11,84; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 7,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>431,15%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>60,3%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>191,7%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,72</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,52</t>
+          <t>-3,36; 6,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,74</t>
+          <t>-1,71; 9,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 3,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-14,37%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,08%</t>
+          <t>-25,5%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-33,26%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>208,41%</t>
         </is>
       </c>
     </row>
@@ -882,30 +968,40 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,01</t>
+          <t>-6,45; 2,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,07</t>
+          <t>-8,35; 3,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 8,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,65; 450,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-65,22%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>437,4%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-73,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -962,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 14,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 1,74</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,36</t>
+          <t>-22,35; 3,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -986,6 +1092,16 @@
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>13,53</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>807,72%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>125,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>187,17%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>675,44%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 12,96</t>
+          <t>0,0; 22,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 23,11</t>
+          <t>-4,7; 21,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,84</t>
+          <t>-3,27; 20,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 45,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>114,35%</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>122,48%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>200,58%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,6</t>
+          <t>-1,15; 2,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,04</t>
+          <t>-0,42; 4,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,8</t>
+          <t>-3,78; 2,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 568,04</t>
+          <t>0,18; 11,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 351,31</t>
+          <t>-73,06; 892,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 298,4</t>
+          <t>-46,4; 1131,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-75,43; 143,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; 1425,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-4.987473795936583</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.848424527657162</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.64342648143704</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.790330544798922</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 7,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.232629515033782</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.685390447071602</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.43750894542558</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.391974727905052</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6792743813539467</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>191,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-25,35%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.44388699679033</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.46122618641749</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.947922092397297</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 6,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 9,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 3,59</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.630552318855679</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.714584971198395</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +787,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-25,5%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-33,26%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>208,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.245988055803498</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5476822462870012</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.8742332007607</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.8236545234208689</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2839706230535941</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.202167834223372</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2425853058943402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 2,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 3,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 8,47</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.804250374189944</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.268592338129234</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.814836143795967</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.294098953863014</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.40058430574096</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.368994934245464</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.43262683133372</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,71</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-73,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,35; 3,44</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.8988641166669186</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3691793524402451</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.289230105575679</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.946404580033488</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1486806313909331</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2921281662778485</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.238639343475711</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,53</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>125,62%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>187,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>675,44%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.289641725468349</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.747016973013096</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.837250696107403</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 22,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 21,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 20,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 45,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.587617960095842</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.823085173095494</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.864854793800951</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.859668289910191</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,44 +959,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>64,52%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>122,48%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-8,25%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>200,58%</t>
+      <c r="C16" s="5" t="n">
+        <v>4.153410843830394</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.055278888673313</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-5.350610608711165</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3.679633135568108</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.7619294146539469</v>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1263,52 +994,238 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 2,93</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 4,02</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 2,46</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 11,6</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-73,06; 892,6</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-46,4; 1131,73</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-75,43; 143,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-27,86; 1425,99</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-24.69766605101356</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.92411012020528</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.68912330701438</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.357072532015704</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>12.60748489326033</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>6.984673372305361</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.313575836114925</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.330383286527867</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>10.63137154740867</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.402716690535558</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>1.893052478175541</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>4.514323150908054</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.702609777173364</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-3.504395932052777</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.188160746688003</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>23.46032290257779</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>22.89023656217525</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>20.70276013359985</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>37.99989176715889</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6035456453918617</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.387977122714123</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.4043815107037236</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3.162217294307374</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4994125570489416</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.217411119931389</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1290276776328869</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.992716759041562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.412735646818413</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.5009514394192287</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.165410817379942</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3422041010940991</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.7591979642195874</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.5089089926834073</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.7752910345867593</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.216129241918304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.692545969683172</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.078854702487065</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.134463000622503</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.310892810230973</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>7.389701391807678</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>10.18569240765736</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.226055291037081</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>12.92891340594018</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1233,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
